--- a/thesis.xlsx
+++ b/thesis.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\tomas\Desktop\thesis\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{00F1CF27-4965-4812-BB87-AE10E2C0770D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BB3B08F2-40C8-431A-805F-E453B6A03978}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-23148" yWindow="2220" windowWidth="23256" windowHeight="12576" xr2:uid="{98E2BF6E-D500-41A5-B1D3-D8E94D3F7C01}"/>
+    <workbookView xWindow="-9468" yWindow="1224" windowWidth="17280" windowHeight="8964" xr2:uid="{98E2BF6E-D500-41A5-B1D3-D8E94D3F7C01}"/>
   </bookViews>
   <sheets>
     <sheet name="List1" sheetId="1" r:id="rId1"/>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="46" uniqueCount="45">
   <si>
     <t>The purpose of</t>
   </si>
@@ -87,6 +87,87 @@
   </si>
   <si>
     <t>which leads to</t>
+  </si>
+  <si>
+    <t>Before..</t>
+  </si>
+  <si>
+    <t>As was shown in..</t>
+  </si>
+  <si>
+    <t>Therefore</t>
+  </si>
+  <si>
+    <t>Now</t>
+  </si>
+  <si>
+    <t>Finally</t>
+  </si>
+  <si>
+    <t>Note that</t>
+  </si>
+  <si>
+    <t>This completes</t>
+  </si>
+  <si>
+    <t>The objective</t>
+  </si>
+  <si>
+    <t>Thus</t>
+  </si>
+  <si>
+    <t>Then</t>
+  </si>
+  <si>
+    <t>Given that</t>
+  </si>
+  <si>
+    <t>In this case</t>
+  </si>
+  <si>
+    <t>Hence</t>
+  </si>
+  <si>
+    <t>Using</t>
+  </si>
+  <si>
+    <t>So</t>
+  </si>
+  <si>
+    <t>Notice that</t>
+  </si>
+  <si>
+    <t>It should be noted</t>
+  </si>
+  <si>
+    <t>We might..</t>
+  </si>
+  <si>
+    <t>Based on</t>
+  </si>
+  <si>
+    <t>In particular</t>
+  </si>
+  <si>
+    <t>Rather than</t>
+  </si>
+  <si>
+    <t>central role</t>
+  </si>
+  <si>
+    <t>sought parameters</t>
+  </si>
+  <si>
+    <t>We phrase</t>
+  </si>
+  <si>
+    <t>emphasize</t>
+  </si>
+  <si>
+    <t>contain</t>
+  </si>
+  <si>
+    <t>Such</t>
   </si>
 </sst>
 </file>
@@ -446,93 +527,195 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B16A319C-7A0B-4C0D-A7B8-B98C66568401}">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:D20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="22.33203125" customWidth="1"/>
-    <col min="2" max="2" width="21.6640625" customWidth="1"/>
-    <col min="3" max="3" width="14" customWidth="1"/>
+    <col min="1" max="2" width="22.33203125" customWidth="1"/>
+    <col min="3" max="3" width="21.6640625" customWidth="1"/>
+    <col min="4" max="4" width="14" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:4" s="1" customFormat="1" x14ac:dyDescent="0.3">
       <c r="A1" s="1" t="s">
         <v>7</v>
       </c>
       <c r="B1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C1" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="D1" s="1" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C2" t="s">
         <v>8</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>1</v>
       </c>
       <c r="B3" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>2</v>
       </c>
       <c r="B4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C4" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>3</v>
       </c>
       <c r="B5" t="s">
+        <v>30</v>
+      </c>
+      <c r="C5" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>31</v>
+      </c>
+      <c r="C6" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>32</v>
+      </c>
+      <c r="C7" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>17</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>19</v>
+      </c>
+      <c r="B13" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>21</v>
+      </c>
+      <c r="B15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>26</v>
       </c>
     </row>
   </sheetData>
